--- a/Coursera Pathway/Pathway/Full Stack Web Development Pathway.xlsx
+++ b/Coursera Pathway/Pathway/Full Stack Web Development Pathway.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\College\6th Semester\Coursera Pathway\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\College\7th Semester\Coursera Pathway\Pathway\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C35100C1-E2D3-468A-9376-B41F6ACAC635}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41C58AEE-56A3-4C05-9B67-F9D2032E286C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -346,7 +346,7 @@
       <name val="Times New Roman"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -369,6 +369,24 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFD9D9D9"/>
         <bgColor rgb="FFD9D9D9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor rgb="FFD9D9D9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -535,7 +553,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -595,9 +613,6 @@
     <xf numFmtId="0" fontId="11" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -620,14 +635,8 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -661,6 +670,24 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -945,8 +972,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:L19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="B10" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1013,12 +1040,12 @@
       <c r="H4" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="44" t="s">
+      <c r="I4" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="J4" s="45"/>
-      <c r="K4" s="45"/>
-      <c r="L4" s="46"/>
+      <c r="J4" s="42"/>
+      <c r="K4" s="42"/>
+      <c r="L4" s="43"/>
     </row>
     <row r="5" spans="1:12" ht="78">
       <c r="A5" s="19">
@@ -1030,31 +1057,31 @@
       <c r="C5" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="21" t="s">
+      <c r="D5" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="22" t="s">
+      <c r="E5" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="22">
+      <c r="F5" s="21">
         <v>12</v>
       </c>
-      <c r="G5" s="22" t="s">
+      <c r="G5" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="H5" s="22" t="s">
+      <c r="H5" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="I5" s="23" t="s">
+      <c r="I5" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="J5" s="47" t="s">
+      <c r="J5" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="K5" s="24" t="s">
+      <c r="K5" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="L5" s="25" t="s">
+      <c r="L5" s="24" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1065,32 +1092,32 @@
       <c r="B6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="26" t="s">
+      <c r="C6" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="21" t="s">
+      <c r="D6" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="22" t="s">
+      <c r="E6" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="22">
+      <c r="F6" s="21">
         <v>8</v>
       </c>
-      <c r="G6" s="22" t="s">
+      <c r="G6" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="H6" s="22" t="s">
+      <c r="H6" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="I6" s="23" t="s">
+      <c r="I6" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="J6" s="38"/>
-      <c r="K6" s="25" t="s">
+      <c r="J6" s="35"/>
+      <c r="K6" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="L6" s="25" t="s">
+      <c r="L6" s="24" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1101,32 +1128,32 @@
       <c r="B7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="26" t="s">
+      <c r="C7" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="21" t="s">
+      <c r="D7" s="45" t="s">
         <v>25</v>
       </c>
-      <c r="E7" s="22" t="s">
+      <c r="E7" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="F7" s="22">
+      <c r="F7" s="21">
         <v>13</v>
       </c>
-      <c r="G7" s="22" t="s">
+      <c r="G7" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="H7" s="22" t="s">
+      <c r="H7" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="I7" s="23" t="s">
+      <c r="I7" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="J7" s="38"/>
-      <c r="K7" s="25" t="s">
+      <c r="J7" s="35"/>
+      <c r="K7" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="L7" s="25" t="s">
+      <c r="L7" s="24" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1137,32 +1164,32 @@
       <c r="B8" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="26" t="s">
+      <c r="C8" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="D8" s="21" t="s">
+      <c r="D8" s="45" t="s">
         <v>31</v>
       </c>
-      <c r="E8" s="22" t="s">
+      <c r="E8" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="F8" s="22">
+      <c r="F8" s="21">
         <v>10</v>
       </c>
-      <c r="G8" s="22" t="s">
+      <c r="G8" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="H8" s="22" t="s">
+      <c r="H8" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="I8" s="23" t="s">
+      <c r="I8" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="J8" s="39"/>
-      <c r="K8" s="25" t="s">
+      <c r="J8" s="36"/>
+      <c r="K8" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="L8" s="25" t="s">
+      <c r="L8" s="24" t="s">
         <v>35</v>
       </c>
     </row>
@@ -1172,15 +1199,15 @@
       <c r="C9" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D9" s="27"/>
-      <c r="E9" s="27"/>
-      <c r="F9" s="27"/>
-      <c r="G9" s="27"/>
-      <c r="H9" s="27"/>
-      <c r="I9" s="27"/>
-      <c r="J9" s="27"/>
-      <c r="K9" s="27"/>
-      <c r="L9" s="28"/>
+      <c r="D9" s="26"/>
+      <c r="E9" s="26"/>
+      <c r="F9" s="26"/>
+      <c r="G9" s="26"/>
+      <c r="H9" s="26"/>
+      <c r="I9" s="26"/>
+      <c r="J9" s="26"/>
+      <c r="K9" s="26"/>
+      <c r="L9" s="27"/>
     </row>
     <row r="10" spans="1:12" ht="62.4">
       <c r="A10" s="15">
@@ -1189,10 +1216,10 @@
       <c r="B10" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="C10" s="29" t="s">
+      <c r="C10" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="D10" s="30" t="s">
+      <c r="D10" s="46" t="s">
         <v>39</v>
       </c>
       <c r="E10" s="18" t="s">
@@ -1207,16 +1234,16 @@
       <c r="H10" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="I10" s="31" t="s">
+      <c r="I10" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="J10" s="37" t="s">
+      <c r="J10" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="K10" s="40" t="s">
+      <c r="K10" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="L10" s="25" t="s">
+      <c r="L10" s="24" t="s">
         <v>44</v>
       </c>
     </row>
@@ -1227,10 +1254,10 @@
       <c r="B11" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="C11" s="29" t="s">
+      <c r="C11" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="D11" s="10" t="s">
+      <c r="D11" s="47" t="s">
         <v>46</v>
       </c>
       <c r="E11" s="18" t="s">
@@ -1245,12 +1272,12 @@
       <c r="H11" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="I11" s="31" t="s">
+      <c r="I11" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="J11" s="38"/>
-      <c r="K11" s="41"/>
-      <c r="L11" s="25" t="s">
+      <c r="J11" s="35"/>
+      <c r="K11" s="38"/>
+      <c r="L11" s="24" t="s">
         <v>48</v>
       </c>
     </row>
@@ -1261,10 +1288,10 @@
       <c r="B12" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="C12" s="29" t="s">
+      <c r="C12" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="D12" s="10" t="s">
+      <c r="D12" s="49" t="s">
         <v>50</v>
       </c>
       <c r="E12" s="18" t="s">
@@ -1279,12 +1306,12 @@
       <c r="H12" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="I12" s="31" t="s">
+      <c r="I12" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="J12" s="38"/>
-      <c r="K12" s="41"/>
-      <c r="L12" s="25" t="s">
+      <c r="J12" s="35"/>
+      <c r="K12" s="38"/>
+      <c r="L12" s="24" t="s">
         <v>52</v>
       </c>
     </row>
@@ -1295,10 +1322,10 @@
       <c r="B13" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="C13" s="29" t="s">
+      <c r="C13" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="D13" s="32" t="s">
+      <c r="D13" s="50" t="s">
         <v>54</v>
       </c>
       <c r="E13" s="18" t="s">
@@ -1313,12 +1340,12 @@
       <c r="H13" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="I13" s="31" t="s">
+      <c r="I13" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="J13" s="39"/>
-      <c r="K13" s="42"/>
-      <c r="L13" s="25" t="s">
+      <c r="J13" s="36"/>
+      <c r="K13" s="39"/>
+      <c r="L13" s="24" t="s">
         <v>56</v>
       </c>
     </row>
@@ -1328,15 +1355,15 @@
       <c r="C14" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="D14" s="27"/>
-      <c r="E14" s="27"/>
-      <c r="F14" s="27"/>
-      <c r="G14" s="27"/>
-      <c r="H14" s="27"/>
-      <c r="I14" s="27"/>
-      <c r="J14" s="27"/>
-      <c r="K14" s="27"/>
-      <c r="L14" s="28"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="26"/>
+      <c r="F14" s="26"/>
+      <c r="G14" s="26"/>
+      <c r="H14" s="26"/>
+      <c r="I14" s="26"/>
+      <c r="J14" s="26"/>
+      <c r="K14" s="26"/>
+      <c r="L14" s="27"/>
     </row>
     <row r="15" spans="1:12" ht="15.6">
       <c r="A15" s="9">
@@ -1345,34 +1372,34 @@
       <c r="B15" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C15" s="33" t="s">
+      <c r="C15" s="30" t="s">
         <v>58</v>
       </c>
-      <c r="D15" s="30" t="s">
+      <c r="D15" s="48" t="s">
         <v>59</v>
       </c>
-      <c r="E15" s="22" t="s">
+      <c r="E15" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="F15" s="22">
+      <c r="F15" s="21">
         <v>24</v>
       </c>
-      <c r="G15" s="22" t="s">
+      <c r="G15" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="H15" s="22" t="s">
+      <c r="H15" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="I15" s="23" t="s">
+      <c r="I15" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="J15" s="43" t="s">
+      <c r="J15" s="40" t="s">
         <v>64</v>
       </c>
-      <c r="K15" s="40" t="s">
+      <c r="K15" s="37" t="s">
         <v>65</v>
       </c>
-      <c r="L15" s="25" t="s">
+      <c r="L15" s="24" t="s">
         <v>66</v>
       </c>
     </row>
@@ -1383,30 +1410,30 @@
       <c r="B16" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C16" s="34" t="s">
+      <c r="C16" s="31" t="s">
         <v>67</v>
       </c>
       <c r="D16" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="E16" s="22" t="s">
+      <c r="E16" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="F16" s="22">
+      <c r="F16" s="21">
         <v>12</v>
       </c>
-      <c r="G16" s="22" t="s">
+      <c r="G16" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="H16" s="22" t="s">
+      <c r="H16" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="I16" s="23" t="s">
+      <c r="I16" s="22" t="s">
         <v>69</v>
       </c>
-      <c r="J16" s="38"/>
-      <c r="K16" s="41"/>
-      <c r="L16" s="25" t="s">
+      <c r="J16" s="35"/>
+      <c r="K16" s="38"/>
+      <c r="L16" s="24" t="s">
         <v>70</v>
       </c>
     </row>
@@ -1417,30 +1444,30 @@
       <c r="B17" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C17" s="33" t="s">
+      <c r="C17" s="30" t="s">
         <v>71</v>
       </c>
       <c r="D17" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="E17" s="22" t="s">
+      <c r="E17" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="F17" s="22">
+      <c r="F17" s="21">
         <v>16</v>
       </c>
-      <c r="G17" s="22" t="s">
+      <c r="G17" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="H17" s="22" t="s">
+      <c r="H17" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="I17" s="23" t="s">
+      <c r="I17" s="22" t="s">
         <v>73</v>
       </c>
-      <c r="J17" s="38"/>
-      <c r="K17" s="41"/>
-      <c r="L17" s="25" t="s">
+      <c r="J17" s="35"/>
+      <c r="K17" s="38"/>
+      <c r="L17" s="24" t="s">
         <v>74</v>
       </c>
     </row>
@@ -1451,29 +1478,29 @@
       <c r="B18" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C18" s="33" t="s">
+      <c r="C18" s="30" t="s">
         <v>75</v>
       </c>
       <c r="D18" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="E18" s="22" t="s">
+      <c r="E18" s="21" t="s">
         <v>77</v>
       </c>
-      <c r="F18" s="22">
+      <c r="F18" s="21">
         <v>18</v>
       </c>
-      <c r="G18" s="22" t="s">
+      <c r="G18" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="H18" s="22" t="s">
+      <c r="H18" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="I18" s="23" t="s">
+      <c r="I18" s="22" t="s">
         <v>78</v>
       </c>
-      <c r="J18" s="39"/>
-      <c r="K18" s="42"/>
+      <c r="J18" s="36"/>
+      <c r="K18" s="39"/>
       <c r="L18" s="11"/>
     </row>
     <row r="19" spans="1:12" ht="15.6">
@@ -1486,9 +1513,9 @@
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
       <c r="I19" s="4"/>
-      <c r="J19" s="35"/>
-      <c r="K19" s="36"/>
-      <c r="L19" s="36"/>
+      <c r="J19" s="32"/>
+      <c r="K19" s="33"/>
+      <c r="L19" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="6">

--- a/Coursera Pathway/Pathway/Full Stack Web Development Pathway.xlsx
+++ b/Coursera Pathway/Pathway/Full Stack Web Development Pathway.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\College\7th Semester\Coursera Pathway\Pathway\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41C58AEE-56A3-4C05-9B67-F9D2032E286C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33B37491-A8A3-401F-97E0-35908D4978E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -385,12 +385,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59999389629810485"/>
+        <fgColor rgb="FFFF9900"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -548,6 +548,37 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -555,7 +586,6 @@
   </cellStyleXfs>
   <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -649,6 +679,15 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -671,23 +710,17 @@
     <xf numFmtId="0" fontId="12" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -696,6 +729,12 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFF9900"/>
+      <color rgb="FFFF9999"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -972,8 +1011,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:L19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B10" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -990,535 +1029,536 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:12" ht="15.6">
-      <c r="A2" s="8"/>
-      <c r="B2" s="8"/>
-      <c r="C2" s="12" t="s">
+      <c r="A2" s="7"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8"/>
-      <c r="L2" s="8"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
     </row>
     <row r="3" spans="1:12" ht="15.6">
-      <c r="A3" s="7"/>
-      <c r="B3" s="7"/>
-      <c r="C3" s="5" t="s">
+      <c r="A3" s="6"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="7"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
-      <c r="J3" s="14"/>
-      <c r="K3" s="14"/>
-      <c r="L3" s="14"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="13"/>
+      <c r="K3" s="13"/>
+      <c r="L3" s="13"/>
     </row>
     <row r="4" spans="1:12" ht="24" customHeight="1">
-      <c r="A4" s="15"/>
-      <c r="B4" s="15"/>
-      <c r="C4" s="16" t="s">
+      <c r="A4" s="14"/>
+      <c r="B4" s="14"/>
+      <c r="C4" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="15"/>
-      <c r="E4" s="17" t="s">
+      <c r="D4" s="14"/>
+      <c r="E4" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="17" t="s">
+      <c r="F4" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="18" t="s">
+      <c r="G4" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="18" t="s">
+      <c r="H4" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="41" t="s">
+      <c r="I4" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="J4" s="42"/>
-      <c r="K4" s="42"/>
-      <c r="L4" s="43"/>
+      <c r="J4" s="44"/>
+      <c r="K4" s="44"/>
+      <c r="L4" s="45"/>
     </row>
     <row r="5" spans="1:12" ht="78">
-      <c r="A5" s="19">
+      <c r="A5" s="18">
         <v>1</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="20" t="s">
+      <c r="C5" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="45" t="s">
+      <c r="D5" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="21" t="s">
+      <c r="E5" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="21">
+      <c r="F5" s="20">
         <v>12</v>
       </c>
-      <c r="G5" s="21" t="s">
+      <c r="G5" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="H5" s="21" t="s">
+      <c r="H5" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="I5" s="22" t="s">
+      <c r="I5" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="J5" s="44" t="s">
+      <c r="J5" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="K5" s="23" t="s">
+      <c r="K5" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="L5" s="24" t="s">
+      <c r="L5" s="23" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="62.4">
-      <c r="A6" s="19">
+      <c r="A6" s="18">
         <v>2</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="25" t="s">
+      <c r="C6" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="45" t="s">
+      <c r="D6" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="21" t="s">
+      <c r="E6" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="21">
+      <c r="F6" s="20">
         <v>8</v>
       </c>
-      <c r="G6" s="21" t="s">
+      <c r="G6" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="H6" s="21" t="s">
+      <c r="H6" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="I6" s="22" t="s">
+      <c r="I6" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="J6" s="35"/>
-      <c r="K6" s="24" t="s">
+      <c r="J6" s="37"/>
+      <c r="K6" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="L6" s="24" t="s">
+      <c r="L6" s="23" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="46.8">
-      <c r="A7" s="19">
+      <c r="A7" s="18">
         <v>3</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="25" t="s">
+      <c r="C7" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="45" t="s">
+      <c r="D7" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="E7" s="21" t="s">
+      <c r="E7" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="F7" s="21">
+      <c r="F7" s="20">
         <v>13</v>
       </c>
-      <c r="G7" s="21" t="s">
+      <c r="G7" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="H7" s="21" t="s">
+      <c r="H7" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="I7" s="22" t="s">
+      <c r="I7" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="J7" s="35"/>
-      <c r="K7" s="24" t="s">
+      <c r="J7" s="37"/>
+      <c r="K7" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="L7" s="24" t="s">
+      <c r="L7" s="23" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="46.8">
-      <c r="A8" s="19">
+      <c r="A8" s="18">
         <v>4</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="25" t="s">
+      <c r="C8" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="D8" s="45" t="s">
+      <c r="D8" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="E8" s="21" t="s">
+      <c r="E8" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="F8" s="21">
+      <c r="F8" s="20">
         <v>10</v>
       </c>
-      <c r="G8" s="21" t="s">
+      <c r="G8" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="H8" s="21" t="s">
+      <c r="H8" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="I8" s="22" t="s">
+      <c r="I8" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="J8" s="36"/>
-      <c r="K8" s="24" t="s">
+      <c r="J8" s="38"/>
+      <c r="K8" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="L8" s="24" t="s">
+      <c r="L8" s="23" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="15.6">
-      <c r="A9" s="6"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="5" t="s">
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D9" s="26"/>
-      <c r="E9" s="26"/>
-      <c r="F9" s="26"/>
-      <c r="G9" s="26"/>
-      <c r="H9" s="26"/>
-      <c r="I9" s="26"/>
-      <c r="J9" s="26"/>
-      <c r="K9" s="26"/>
-      <c r="L9" s="27"/>
+      <c r="D9" s="25"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="25"/>
+      <c r="G9" s="25"/>
+      <c r="H9" s="25"/>
+      <c r="I9" s="25"/>
+      <c r="J9" s="25"/>
+      <c r="K9" s="25"/>
+      <c r="L9" s="26"/>
     </row>
     <row r="10" spans="1:12" ht="62.4">
-      <c r="A10" s="15">
+      <c r="A10" s="14">
         <v>5</v>
       </c>
-      <c r="B10" s="15" t="s">
+      <c r="B10" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="C10" s="28" t="s">
+      <c r="C10" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="D10" s="46" t="s">
+      <c r="D10" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="E10" s="18" t="s">
+      <c r="E10" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="F10" s="18">
+      <c r="F10" s="17">
         <v>14</v>
       </c>
-      <c r="G10" s="18" t="s">
+      <c r="G10" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="H10" s="18" t="s">
+      <c r="H10" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="I10" s="29" t="s">
+      <c r="I10" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="J10" s="34" t="s">
+      <c r="J10" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="K10" s="37" t="s">
+      <c r="K10" s="39" t="s">
         <v>43</v>
       </c>
-      <c r="L10" s="24" t="s">
+      <c r="L10" s="23" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="62.4">
-      <c r="A11" s="15">
+      <c r="A11" s="14">
         <v>6</v>
       </c>
-      <c r="B11" s="15" t="s">
+      <c r="B11" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="C11" s="28" t="s">
+      <c r="C11" s="27" t="s">
         <v>45</v>
       </c>
-      <c r="D11" s="47" t="s">
+      <c r="D11" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="E11" s="18" t="s">
+      <c r="E11" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="F11" s="18">
+      <c r="F11" s="17">
         <v>14</v>
       </c>
-      <c r="G11" s="18" t="s">
+      <c r="G11" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="H11" s="18" t="s">
+      <c r="H11" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="I11" s="29" t="s">
+      <c r="I11" s="28" t="s">
         <v>47</v>
       </c>
-      <c r="J11" s="35"/>
-      <c r="K11" s="38"/>
-      <c r="L11" s="24" t="s">
+      <c r="J11" s="37"/>
+      <c r="K11" s="40"/>
+      <c r="L11" s="23" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="62.4">
-      <c r="A12" s="15">
+      <c r="A12" s="14">
         <v>7</v>
       </c>
-      <c r="B12" s="15" t="s">
+      <c r="B12" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="C12" s="28" t="s">
+      <c r="C12" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="D12" s="49" t="s">
+      <c r="D12" s="35" t="s">
         <v>50</v>
       </c>
-      <c r="E12" s="18" t="s">
+      <c r="E12" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="F12" s="18">
+      <c r="F12" s="17">
         <v>14</v>
       </c>
-      <c r="G12" s="18" t="s">
+      <c r="G12" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="H12" s="18" t="s">
+      <c r="H12" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="I12" s="29" t="s">
+      <c r="I12" s="28" t="s">
         <v>51</v>
       </c>
-      <c r="J12" s="35"/>
-      <c r="K12" s="38"/>
-      <c r="L12" s="24" t="s">
+      <c r="J12" s="37"/>
+      <c r="K12" s="40"/>
+      <c r="L12" s="23" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="46.8">
-      <c r="A13" s="15">
+      <c r="A13" s="14">
         <v>8</v>
       </c>
-      <c r="B13" s="15" t="s">
+      <c r="B13" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="C13" s="28" t="s">
+      <c r="C13" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="D13" s="50" t="s">
+      <c r="D13" s="47" t="s">
         <v>54</v>
       </c>
-      <c r="E13" s="18" t="s">
+      <c r="E13" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="F13" s="18">
+      <c r="F13" s="17">
         <v>10</v>
       </c>
-      <c r="G13" s="18" t="s">
+      <c r="G13" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="H13" s="18" t="s">
+      <c r="H13" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="I13" s="29" t="s">
+      <c r="I13" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="J13" s="36"/>
-      <c r="K13" s="39"/>
-      <c r="L13" s="24" t="s">
+      <c r="J13" s="38"/>
+      <c r="K13" s="41"/>
+      <c r="L13" s="23" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="15.6">
-      <c r="A14" s="6"/>
-      <c r="B14" s="6"/>
-      <c r="C14" s="5" t="s">
+      <c r="A14" s="5"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="D14" s="26"/>
-      <c r="E14" s="26"/>
-      <c r="F14" s="26"/>
-      <c r="G14" s="26"/>
-      <c r="H14" s="26"/>
-      <c r="I14" s="26"/>
-      <c r="J14" s="26"/>
-      <c r="K14" s="26"/>
-      <c r="L14" s="27"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="25"/>
+      <c r="F14" s="25"/>
+      <c r="G14" s="25"/>
+      <c r="H14" s="25"/>
+      <c r="I14" s="25"/>
+      <c r="J14" s="25"/>
+      <c r="K14" s="25"/>
+      <c r="L14" s="26"/>
     </row>
     <row r="15" spans="1:12" ht="15.6">
-      <c r="A15" s="9">
+      <c r="A15" s="8">
         <v>9</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C15" s="30" t="s">
+      <c r="C15" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="D15" s="48" t="s">
+      <c r="D15" s="34" t="s">
         <v>59</v>
       </c>
-      <c r="E15" s="21" t="s">
+      <c r="E15" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="F15" s="21">
+      <c r="F15" s="20">
         <v>24</v>
       </c>
-      <c r="G15" s="21" t="s">
+      <c r="G15" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="H15" s="21" t="s">
+      <c r="H15" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="I15" s="22" t="s">
+      <c r="I15" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="J15" s="40" t="s">
+      <c r="J15" s="42" t="s">
         <v>64</v>
       </c>
-      <c r="K15" s="37" t="s">
+      <c r="K15" s="39" t="s">
         <v>65</v>
       </c>
-      <c r="L15" s="24" t="s">
+      <c r="L15" s="23" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="46.8">
-      <c r="A16" s="9">
+      <c r="A16" s="8">
         <v>10</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C16" s="31" t="s">
+      <c r="C16" s="30" t="s">
         <v>67</v>
       </c>
-      <c r="D16" s="10" t="s">
+      <c r="D16" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="E16" s="21" t="s">
+      <c r="E16" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="F16" s="21">
+      <c r="F16" s="20">
         <v>12</v>
       </c>
-      <c r="G16" s="21" t="s">
+      <c r="G16" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="H16" s="21" t="s">
+      <c r="H16" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="I16" s="22" t="s">
+      <c r="I16" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="J16" s="35"/>
-      <c r="K16" s="38"/>
-      <c r="L16" s="24" t="s">
+      <c r="J16" s="37"/>
+      <c r="K16" s="40"/>
+      <c r="L16" s="23" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="31.2">
-      <c r="A17" s="9">
+      <c r="A17" s="8">
         <v>11</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C17" s="30" t="s">
+      <c r="C17" s="29" t="s">
         <v>71</v>
       </c>
-      <c r="D17" s="10" t="s">
+      <c r="D17" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="E17" s="21" t="s">
+      <c r="E17" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="F17" s="21">
+      <c r="F17" s="20">
         <v>16</v>
       </c>
-      <c r="G17" s="21" t="s">
+      <c r="G17" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="H17" s="21" t="s">
+      <c r="H17" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="I17" s="22" t="s">
+      <c r="I17" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="J17" s="35"/>
-      <c r="K17" s="38"/>
-      <c r="L17" s="24" t="s">
+      <c r="J17" s="37"/>
+      <c r="K17" s="40"/>
+      <c r="L17" s="23" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="31.2">
-      <c r="A18" s="9">
+      <c r="A18" s="8">
         <v>12</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C18" s="30" t="s">
+      <c r="C18" s="29" t="s">
         <v>75</v>
       </c>
-      <c r="D18" s="10" t="s">
+      <c r="D18" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="E18" s="21" t="s">
+      <c r="E18" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="F18" s="21">
+      <c r="F18" s="20">
         <v>18</v>
       </c>
-      <c r="G18" s="21" t="s">
+      <c r="G18" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="H18" s="21" t="s">
+      <c r="H18" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="I18" s="22" t="s">
+      <c r="I18" s="21" t="s">
         <v>78</v>
       </c>
-      <c r="J18" s="36"/>
-      <c r="K18" s="39"/>
-      <c r="L18" s="11"/>
+      <c r="J18" s="38"/>
+      <c r="K18" s="41"/>
+      <c r="L18" s="10"/>
     </row>
     <row r="19" spans="1:12" ht="15.6">
-      <c r="A19" s="3"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="4"/>
-      <c r="J19" s="32"/>
-      <c r="K19" s="33"/>
-      <c r="L19" s="33"/>
+      <c r="A19" s="2"/>
+      <c r="B19" s="48"/>
+      <c r="C19" s="49"/>
+      <c r="D19" s="50"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="31"/>
+      <c r="K19" s="32"/>
+      <c r="L19" s="32"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="7">
+    <mergeCell ref="B19:D19"/>
     <mergeCell ref="J10:J13"/>
     <mergeCell ref="K10:K13"/>
     <mergeCell ref="J15:J18"/>
